--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/45_Kars_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/45_Kars_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62A72A4-9429-47F5-AF36-D1CB154AF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FEFF3DE-E6A4-4911-AA8D-10000068AF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="678" xr2:uid="{83F29EC8-063D-4095-9D19-64B94198A62B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{D35898B2-1B42-4647-ABB9-701CB811448E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -968,13 +968,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{178A12C7-A401-4F72-A494-ADB557979164}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{51BDCB17-2989-4911-A742-C6C73EBB6983}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{AE95AF01-3ABA-4ED5-A400-CDFD77F0AD1C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{63D9E0F9-CE16-4A2D-9864-C435C5108CC5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C29CAF3B-5729-4943-A5BA-972052F28B84}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{4F7FA073-05D5-48F2-A44A-C1AC0A0303B0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FB876B8D-DD17-4587-9524-17A070A2EA7C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A6C622D3-E344-487A-8072-8F9C7DC40539}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DEE28EAA-9D0F-4C5B-AB8A-F4140D39D2E6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{99736D7D-F836-450D-AAFA-2CF79FDBAD7A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3CF4F060-3460-4FDF-A761-99D051885ABA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{09184FE2-5015-4C4D-9FA2-09DF5855B0D9}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5A9F113F-6281-4CA5-941D-65989F17D427}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1BED4554-CCC8-4537-9384-A6BF4CB950EF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1344,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2503CA-DC70-4A34-854B-1DF1ACE73A71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DC7836-006D-4E78-ACD3-E16347595BF5}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2624,17 +2624,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28D50510-059C-4DCE-8DAC-EE1C0A9F7083}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F7C9B80-25F3-4D02-B216-DB10DC3EC546}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B528B183-CCB6-46EF-806B-A4AB4B526DF5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73658FA1-FB48-4515-A8A1-3681CB026FD2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78170D3F-7BD2-47B7-9E02-CAC9FD60A738}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C3392AF-1E30-4F6F-9771-7408E10A5DA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2B75292-3C04-49AD-B372-BF15AAD41473}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFEF230B-B7DB-4ABF-8869-74478071BF5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D0B32192-E744-493E-8E32-27F6F7DC79F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4D4EB53B-BFB6-408B-9207-CFAEA3C5CA22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAC2133E-87E3-47D2-BE06-2BCA91E332B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D40832F8-C780-42F8-ACCF-9AA14722D9A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B2D29B9-8D27-424A-97BB-5C4036529A20}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77DCA9A6-0F58-41CB-96EF-08D5B56E75E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1419245E-8A0A-430B-BBBB-A1E358BD98ED}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{099BBD30-F905-4077-A9E3-D421955BF56C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61E59DDD-BF44-4FC9-804A-24DC4910351F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{79AF0257-B522-437E-A454-9FA5FAE5E917}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B376F99-034C-4ED1-B655-E966EEFCCDE2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C5CD1525-06A6-4799-A0FF-58AA594B0A01}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8ED5B1EB-7621-433B-9279-431B9D92FC19}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20B2C82D-77AF-4531-99D6-38EAA920DDD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2647,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635BFAAD-8FBC-4CA3-BB7E-CC83B5A8D703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3B936B-81E4-4C25-8E0D-FEB6251CC7DF}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3911,17 +3911,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D579D92-A1AC-4DE2-A124-3AE11750EFAB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B2D2F06-0DF7-42A5-A09E-9D64347A88A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{82877BB4-6D11-4E2C-9417-CD63FFD46C67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32353DAD-A424-4001-BF77-E0595A56BD28}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F43A9D27-AD1E-435D-AEF6-74FCFF1D3E6B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C503D92-993A-4422-BB9D-D3784F08EB45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34B4A57F-9DE9-410B-90F7-B766BC9F59E7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03BC078F-0D61-41F9-84E2-277B691418B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{00150BB1-9E16-45A5-BDA9-0F6301CB764C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EBE5B4E3-128D-46CB-B8F1-406B9A1AC25C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E91732B3-F559-4AD1-943E-1DF21DFA8774}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76875E3A-7D81-4250-8A10-5AD02360E70C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B034DA3-6F36-438E-943B-7FBC30C54578}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6659BE38-9BA4-479E-8D2B-275B3DA0DDC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4654ED8-52EE-4EC7-891B-540EF045EE66}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{878CD0C7-41EC-47B6-8D23-A4E1ADF865E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{341D944F-8D46-4FB8-A40A-4AE7ABABC862}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD42D2CB-B168-4334-B314-3F8609D41814}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CE5A0B5-82B9-4EEB-BB43-6E0F8F3A87CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FCFFAEAB-AA51-4C1F-A825-6984027CD630}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4EA9E7E9-E141-4800-8EEA-ECD745137258}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85A1F692-2EE8-43ED-BADB-8FD4A8081344}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3934,7 +3934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12959DEA-F590-4B43-9E61-416331AA4CEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F364BBEC-F5AC-4001-9A66-2C68A7B90846}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5168,17 +5168,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79C58767-7C79-4082-9869-DA4B2BF2B483}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D62A3A76-2B7A-4398-943D-2A5926AE39A6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C8A86A5-D737-4AE6-8BC5-6622F2AE26CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE8CC60A-FCED-493A-9BE7-0E79B4185E53}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDA30B59-6C71-4B3D-865E-D9904F8210BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94D9C8C0-9677-4008-BAE8-75C812699615}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A346B244-6380-41F2-82D0-5E0C9232162D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9930A12A-37B8-4245-B100-622FDFA7BCA4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{98B103ED-5F5C-46CC-BADE-F1CB8850B451}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{66956DF7-4644-4648-8AC2-683F1F6E376D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AD22F25-981B-4467-890B-1179860BE1B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{169390F7-E5FB-444D-9252-66EB472E55B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{993FC7A9-833B-45C1-9694-9F04964122F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2748CC1F-1EFD-4BC9-8203-CB7270392DC1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B196CAD4-4031-4D59-838E-C00EEC19EAF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E83C5302-4F52-4E38-AF32-CE9498371E5C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{65A6A057-2102-4D0B-9462-509443491920}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6ED983A-BD85-42EC-8A70-486D09148580}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D16CFFF-AC00-45EB-B6E2-C2D364C61195}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E03976FE-503F-4BAE-8A6A-781C2B081717}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6E864A47-AA31-4D9E-AA4F-71203F189859}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B52A471-7DCF-46EE-AFA0-A1BE9E1FCA9E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5191,7 +5191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946EB08F-CA83-45E2-B11D-50A9BE6E6246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EED0FA8-EA3C-4FF0-A64B-BC30C0AA9A66}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6425,17 +6425,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C0A1490-269E-4654-91DB-ED67B7EF22D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD0ABD7E-0BA1-4135-BFFA-D62F8EF3A50D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{830CB9DC-1C27-46F4-A45D-6084DB3A527A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4442470C-D341-40F9-9965-1C0069DA3BB2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25827B2E-68B7-4081-8462-1D10C065CBD8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{69D8C89B-86BF-4900-B396-56FBAC3DC1E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40B2054B-F6C0-4265-962D-562F089C909E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81F17A03-D7FB-452F-BB1F-7F7BB003ED3F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B6DB21EE-78AF-4151-91E0-647089032D67}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DDA74646-3E51-4882-AA62-536EECD0B6FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA0CE236-C267-4698-A0B2-E457B5757D5A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CB87D85-A2E2-4C40-86D7-B7BB4E4D16EC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D570A8FC-663C-4498-B2AF-37D43FC15508}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{188CC249-D511-4744-B0A3-21F87EB199B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2EED388-3921-4A2D-AAC9-454FAB09C918}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96F4FD29-CA39-4D4A-9D39-F04ADCC80A5B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{56C702EB-032A-4876-BF52-ECA59B89FA29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BC2D698-CAD8-410C-9366-81D1EF9FFC51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED3A6886-2E59-493C-B9D2-98C6A70518EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{49A9F774-8F82-4BCC-956D-82126EB77645}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{58D44BB1-DFA8-46B3-91C1-1315324F69DA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83B24480-12FE-4C39-8497-91DA70021867}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6448,7 +6448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EF5E64-5CCF-4675-A442-98F3B0CC94D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF6D516-02B2-4282-B658-787D5F2DF17F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7723,17 +7723,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD3943F2-6D6D-4D2F-B341-49363F0D11A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BAD5ADF-C722-4146-AFC1-A98805D7416B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{86F73486-0980-4312-95A8-0E96F1AB87AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69065F65-13B7-4734-BDC3-28E9F2BEABF2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{878B3994-F8E3-4EAD-818A-188D91FC0BB8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5E5C0C2E-42F2-4B85-B2BE-A629E36B6344}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3BD5B51-B4E7-4217-86BB-D3F759212918}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41C895DF-9FA2-4286-8A6A-E5E1692BAD9F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E28B6965-B665-44AD-8187-05552F126F70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FB71DA64-60C6-4DF1-A6A5-FB41BE382FE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7450895F-6A1B-4658-AEFB-E6BBA413ED9D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{405E4F5E-07E2-4E74-8B19-A40F60426BF4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE5C0069-3765-44D4-8482-C8701BE2A3E5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FDA66783-18EF-4FD2-9908-F16D17F821C8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7341E67E-16A2-4F83-811B-E8EE1C85CF07}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{390D9999-C6EA-492D-8FC6-7D75E291A24D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80CFCA0C-4C59-401D-9C31-46F632CC8B44}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BEFACC7-DFD4-455A-942A-13EACF261A97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B081617B-FF70-416E-A874-BA09F5A3BFE3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{805B8268-15DE-4F08-9EAD-4C8DBD792DC4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0F5D485B-BE90-454D-AC6A-61EBDDE3086D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DAA18A7-CBEE-4692-80C1-6D1EE943540C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7746,7 +7746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CD8EF-9C76-4289-A2EC-2EEBC54CD446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455A832E-B956-4543-9655-D59549E9FD7F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9021,17 +9021,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EF04353-F57B-4FD6-98EF-81523FEB105D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36D98AF8-76E0-455C-BE3B-2DA8456C4CD0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DC975AC0-17CB-4423-82B7-B0AB17F551CB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5558C4FE-453E-494B-ACAD-C92BA46BBDCF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{512948DD-579F-4CA0-A17C-A5094443507F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CB0D60CE-C96B-4171-A19E-4FD72E5AEEED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFF0E2E8-2AFF-4693-A5D4-6170C872F23B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C725BA1-3F2F-4194-9D3F-FB7701E96336}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4F48E1A8-E1BF-4542-AEE5-B5DA2C096CD7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F5D9D201-2B2E-44DF-9B1E-423391E39BFD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E050126-1848-4C02-B66C-EF5DA134F41E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B032B46-1468-45E8-A785-6D652C541A2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3013BB52-E12A-4C9D-AEDE-290D9753D035}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{32BD4C77-A79E-4123-82B9-CAAA47DFC33B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7994743E-8248-4DB0-BFCB-813163269357}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F8C9A74-22C5-496F-8F4F-1F7983ED8BC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A3BB4F4-2595-4132-A53F-81004444D63B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6F0C10D-D23E-440A-B490-A36497AFE1BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9860ADEB-5A17-48D9-B064-1F9BDA214E3F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D2B94A1D-98A2-49F9-A6C9-A7E7A41EE0AA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9452ACA8-2B26-468E-A2D7-39A782139EC1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39443F18-AE83-40C2-9F2B-1C18D95EB359}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9044,7 +9044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F026E8D-FD3D-4C29-9064-3973666720C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3B9522-7731-4655-A615-464205F3A15D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10319,17 +10319,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB3AECEC-E1FD-4BEA-90F1-30B3E3F417DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E127572E-1FEB-4758-9801-3524A3BA1483}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B4892B7-D7EC-4FB4-978E-24F256A631FB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{829E3CFB-D695-4FB4-84BA-DD1FB1B1B619}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D5B357A-2F36-4368-BE85-63883BA4B865}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DB68D490-C616-4834-B0C6-0B31A45A2004}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D735971-98B2-4F5C-B797-B5FB35E38FCE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE58DA6C-0D52-4997-9692-F2B0078C06A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BBAC3B8D-527A-4586-B92D-7E51BE0C268C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BF55EE30-D0D1-41A5-B334-D4C817176463}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E302F6C-F644-4132-9BA4-57C5DD98EB1C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{09286258-8DCE-4D9F-B936-7E6AF2142139}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C796CE09-A6A4-491F-84F0-43225050351E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1AAA54FF-EC36-4790-8E0F-0237FD9AECA3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5BDFEFAD-F563-49FB-929D-774F473E2463}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33BDFE49-0BA5-4FEB-AA89-589F4ED3CF6B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB1AD8E3-0015-419D-A1A0-02E4E2F059BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{316BBA86-F6C2-49A6-8647-39AD57C1CA03}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5E4F197-DB42-401B-A2D3-38131B9D7049}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5CF919CA-10AA-4AD6-97DF-66D88B9A6EAF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{360FBF8B-A877-4D22-85EC-2A5C7CF4C784}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA556B19-C1DB-41E2-9B73-690603DABAD2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10342,7 +10342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7CA666-B197-48FE-A31B-A7D58E3DAAF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C55E1EB-E078-43A3-920A-8298054320B0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11617,17 +11617,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00270012-8229-4847-AE31-EF27500FA5C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84887938-E59D-46E1-9628-0C04EFB54982}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C9CD702C-9EAE-4498-99C8-59163E2B7AD7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B4AC3BD-2750-4031-A1F9-6724218618C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E551879-4159-448D-B657-1E4AED60A591}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C6814CB-5A59-427C-B6E4-D40E12B33234}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9414981-D8BE-4D33-86E4-0CC4FDB17D03}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D102A95-F33E-4448-908E-014A1129E690}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B0FECA85-81EE-4E9A-AEC3-1B3892F20DD6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FDF9CF67-3F10-42A3-8FE0-A88698A062FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{442191A1-A97B-4908-B0F0-55F05C1F7C55}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33924B07-A818-46FB-8384-4BC2586F509B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C90E512-24C4-47FC-8961-AA8FBFFB4055}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8E4BDA2E-1D10-4DD5-962D-E549F7F1823C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{49B9E986-6314-400C-8459-81E3840559B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA784A34-417A-4864-82ED-7407B03A713A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C162AF91-891C-4A42-B2ED-06CA8377BC68}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E090284C-4FD6-4213-9A50-D66620A8A533}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{305D3183-1A7C-498F-B82B-A1BCC0A6748A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3E0714FA-D7C7-4348-AEF8-9BA7D0966C00}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E66AAEB9-58BB-47E2-A74A-72971F90051D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D2B3035-767B-4194-87BF-0701CD1B9A96}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11640,7 +11640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154171C4-0175-41AB-93E2-4FDBB66D9373}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C1F15-18FF-46E8-8D1A-33E4FA15D4DC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12915,17 +12915,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A11CF7B-F6BD-4CBF-9472-3BEDE0615330}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDFB57A3-9C0B-4708-AD3C-352EC337478F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{867D4138-D0C1-4D1C-B3DB-4D1A86759533}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40A9C862-4000-44B1-B117-62D43818FD31}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7E66866-58B5-42EB-A63C-E10AE0D97271}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{028D8E7F-0EE8-47DC-B586-B00D1A4C0423}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A29E2B51-6A98-49DA-8871-D3CDD0BA2443}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F73BBC9-9894-460D-BE90-1B91A948BBF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{028474A6-CA16-4D34-945C-304D0215D6A6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{30CF034C-CFD9-45CB-A06F-FA107F691E98}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0610CE4A-F655-4E24-8655-313680C4E9B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFB61D70-F418-4BD4-9164-A4B98FDEFF2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{464C0A41-88FD-4EC4-B810-9099E38E31A8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7D63B60-0883-4F2B-B2F8-11F26AD79136}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{45596FE7-85C2-4D34-BD19-516E78097A1F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFBAABD3-E276-4217-BB42-BF3CE3BEE95A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{33BBF019-5C68-4572-8B0E-9105B181F848}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E90142D8-FDF6-43C7-999F-F23E0C46B9AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5E748D6-259F-403A-A95E-38826A91A116}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CF9E748C-12FC-4BA6-B55D-39DF5006D4B2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E54445A4-4532-428F-A381-9D889238B2A5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A162C6B-6B96-4125-B72E-4D8F78A86436}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12938,7 +12938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E03686-6671-468D-BE23-8565D42E8826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA9E7A2-1C24-467F-885D-5BA9C0A6A0CA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14209,17 +14209,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41DA2736-E1C9-4F7D-9062-E9650163A809}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F554D09E-A6C8-4980-9705-B8EA5323EDA9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87952045-7AED-47E6-B118-C20EA2E3A2FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C69BBBC7-191A-4330-AE60-49E95D1E0317}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E247B02-3208-414D-BD27-86BA9297B082}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B650BFB-C61D-43AE-BEE1-2A7DB42CFC4E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EC39F76-C08A-45AD-B315-F6C29987F65B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{674FF80A-6C7E-4CEF-9936-A6C56D851C7E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{59A40C36-3AA7-4749-94FC-51AB10FBEE54}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EAD283B0-0910-4080-B8B4-642447ADEC8A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B12B038-9C7E-49DC-8CD2-FCC094B8EB7D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{328DAB4A-1B9F-477D-BFA3-0BA9041FF857}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC737766-0972-48A9-BEDE-DB3B8B64D637}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E66B10E-8CDB-450A-8842-9D6B1A23368A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C824C532-CE28-4962-AA3F-636472A2AA32}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{774F77FB-17C1-4353-BD9A-58B793AB07E8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8F14B34-C37A-4F14-8B83-0A14B95A1C31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0006BDED-6C15-442F-80DD-149827A96C0E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A09A35D6-D645-4BF3-86DB-658321C6FAD9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8BB29D18-324A-4355-9315-2E4BFB93E022}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{642A7EFE-C011-4E15-BFF3-7AC0EE27A77E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDE5DE57-54AD-4EB8-8F96-9DFA2F15B366}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14232,7 +14232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B4E5B6-FF9A-439C-B937-D60D005E0266}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644946BD-EC31-42EA-AE8B-BB194123A5A4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15503,17 +15503,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21FA1458-AAAB-402A-A8B6-E2C5C33EC3D5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49D80E28-0455-4891-B5B5-816606152EAE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{83924B45-FC9F-4D5D-8335-30994E906144}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84E464DC-BE15-4CA9-83F3-2CC78A6F5D1F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6DF961E4-9812-4206-97FD-4CBC40041798}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E73B1E7-863C-4ADA-9002-FF50F7748B17}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{876AB3C9-F759-4A5A-B887-CA260BE91A01}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B361124E-5549-44D4-9D8E-32DA8664C37E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A50B2673-A315-430C-9B35-006AC689FD51}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DF69B243-D6E0-4540-9E13-705F8FCADBA0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4329B3B9-7DB5-432A-99E9-577F6D5CB9C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7922256-C0D3-45DE-9327-D35691063004}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{789CBDD7-DF7D-40EB-9108-65E88D0FF36D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C60835AB-D47D-4A60-95EE-A7626738143D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EDF9AEC3-52F3-4DBE-B283-42E397D1D6C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{213901F0-38A8-4675-8D52-82CAD2AE933C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DCE45EE9-A910-4FA3-A289-829AF5F140A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B08FA77F-33DF-4ABE-AB9C-1E31E68398D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66077902-C9DC-4788-B400-718622D5B12B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{416619D9-7D6B-4649-90F3-3D942E5CF692}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4035A0A9-0422-4A44-B322-DCE76C67FDF8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AA77F39-F3CF-4B22-B41B-8380E6449769}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15526,7 +15526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE9D221-0A56-4D7B-A3FC-D9071008C100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF34B62-BDCB-4BAC-8339-AEA724BA0D7B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16793,17 +16793,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71190808-D629-4F6B-A927-B5E521439AA9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7733F1C9-B3E2-4527-BEF5-41B16F5D293E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE81C88D-66B1-40CE-B4A0-14BAD1E74476}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DAC95020-3A29-4305-B061-D91F116E9AB9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7274E492-8C23-410E-99D7-E7E794AE4272}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF56563D-39A3-45EE-A429-ABED8CDE2F30}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F565DAC-009E-4F4E-B0DD-64C7246358DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2694E6D1-2FB4-4BC9-94E2-4ABE708C06EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4D28CDD8-87BD-4995-BEA2-23D847CDDF11}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{763C8AA4-0657-42E9-A09F-92DA39B36FE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AB222BE-60D0-4CE5-A66E-8E9F19D2EAAC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B41F1AC-C7F4-441E-A707-848C42CDD188}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5801439F-53A2-4BD4-A2C9-346B25901F88}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DECFBB85-6CEB-4E0A-B36A-317BE3B852F7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABEE17CF-F68B-423F-B852-3912D5987AF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6546D57B-E0AC-4DE4-ABC1-0833F95A137B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D5A743B-917B-4E5F-836C-943397989285}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD41563B-7B6F-4520-A9CD-87ECABA70ED5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DF0D15D-CCCF-49CE-9779-2EAE4B1AB880}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A257C020-AEC8-4649-B408-2BE2B58B1EED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1A506A38-1EF7-4247-8527-D72CE6276812}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{722E5FBF-5217-42D1-8C8E-79DA7ADC5B1C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
